--- a/insta_stamp/insta_list.xlsx
+++ b/insta_stamp/insta_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himzei/Documents/Github/insta-stamp-test/insta_stamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6FDC56-4482-F94E-8974-AAA0B290CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB1EAA-5008-EC4D-A4A1-3C1A722D0A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{48542C12-0544-8D4F-B260-7239BCCC013E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" xr2:uid="{48542C12-0544-8D4F-B260-7239BCCC013E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>https://www.instagram.com/p/Cq_u5x3S12o/</t>
   </si>
@@ -192,6 +193,156 @@
   </si>
   <si>
     <t>https://www.instagram.com/p/CrAQekzPe6l/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/B3JE1hmBiSJ/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/Cq-3DRtJtpw/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHl_0Ovnjv/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/Cq8Dh2zJY-k/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrFOKyrPf6p/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrD9jNRhPo_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrAahpWp586/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrDV9MlPDN6/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHs8_ivJV-/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHyENkPDxY/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxxgqPVGJ/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHx6j0v0oP/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHx9JPP8CS/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHx5hgB5CZ/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHx59FJmBB/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHx2HiBKzP/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHx3BfvYzR/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxhyzvWy2/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxt65LrvB/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxrUmPCp6/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxS82JVLC/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHuqOoP_Km/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHtTTqhvWY/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHrClvBJP_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHp0DovzrJ/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHnnJFBNm_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHly-pB_9H/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrGsNygychV/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrGhQGcBXvX/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrFrN0Nh8Fa/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrDuxoOh5Q7/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrDpcrBB-zA/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHx1ncJQmA/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxx5XBE4U/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxwCoBYOY/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxuyQv-Yk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxv1GJ9A2/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxlOTv28L/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxnYxvxKM/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxr2Mv_MW/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxs_LvPcX/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxtTKSPc7/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxhIhS9bO/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxrckPVpp/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxELaSjwq/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHtAmyP6oS/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/Cq2pzgqLbNZ/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxeg7Pror/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxfE-pp1t/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CrHxbx6PM6W/</t>
   </si>
 </sst>
 </file>
@@ -577,240 +728,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD53F431-7D62-9F4B-B216-83BC2B3CB9C9}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="291" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
-    <col min="2" max="2" width="85.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{47472758-E40E-8F41-8020-737E899A6B38}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{05891531-D57C-F642-8A38-417DF4960AAB}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{FBCBEE20-06F9-824C-8243-090494602B7F}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{9B5C7F77-B888-3D42-9283-04A4DE29429E}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{AD897E1E-CF9F-D045-B5B6-C998891AD439}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{DAA563EB-8B3A-C048-A28E-0C130D67E773}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{1CD9166F-6366-8D42-B12F-CEF4264F1A43}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{192600DE-21F5-244E-983B-C856F27996DA}"/>
-    <hyperlink ref="A16" r:id="rId9" xr:uid="{3C8F1733-4A23-6F45-9C31-67FECAC38C6F}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{FF732593-0199-A64B-834B-97911FE7772C}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{18F14246-9148-1D44-AFBC-DB5AA2C6B642}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{E4AC2FA8-8415-0E47-8320-56250E3DD44D}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{527C6D48-EEBA-4C4D-8237-62F0976E931C}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{BC0F5DA9-10B7-424D-B1F8-572DE54F3765}"/>
+    <hyperlink ref="A12" r:id="rId6" xr:uid="{D5EB7884-145C-CF4C-AEA1-C4525C818F38}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{88CB8C8D-FE66-5042-8A19-3DA2D7D18E12}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{CCBD7E24-0570-F548-9FE0-E7D69B79741F}"/>
+    <hyperlink ref="A36" r:id="rId9" xr:uid="{13BD40AB-22EA-CB40-923D-182D841C226E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1871BAD8-5DD1-6240-92C8-386A3B2A734A}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="78.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{319EBEB3-D58B-0044-A283-07D2EF6427FA}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{CC3E8F32-5CFA-6E4C-985F-826D696839CE}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{710876DC-F5FE-E74E-98CB-991AAA58FEF7}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{32864925-870C-824F-B1EA-F836806075EB}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{6FAB70DE-0E3E-AB4B-BBAF-089FF4018CB5}"/>
+    <hyperlink ref="A12" r:id="rId6" xr:uid="{242FDDF9-2F5E-C842-9E88-FCA1426CD607}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{C313BB9B-3CC4-6B4B-9BC8-049916CAF87B}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{78F04BD4-013D-ED45-9B31-FEA22241AB63}"/>
+    <hyperlink ref="A36" r:id="rId9" xr:uid="{FBD3E653-3651-7447-98B3-3A0836CEA500}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
